--- a/14-Accueil-MiseAJourNoteIG/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/14-Accueil-MiseAJourNoteIG/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T09:20:44+00:00</t>
+    <t>2025-07-15T09:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/14-Accueil-MiseAJourNoteIG/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/14-Accueil-MiseAJourNoteIG/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T09:30:31+00:00</t>
+    <t>2025-07-15T09:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/14-Accueil-MiseAJourNoteIG/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/14-Accueil-MiseAJourNoteIG/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T09:53:05+00:00</t>
+    <t>2025-07-15T10:34:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
